--- a/Output/Reporte_2020_MINISTERIO DE JUSTICIA Y SEGURIDAD.xlsx
+++ b/Output/Reporte_2020_MINISTERIO DE JUSTICIA Y SEGURIDAD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16ed0ccba9cd48a3/SOLCITO/PROGRAMACION/KPMG/RPA-UiPath-Semana1/Ejercicio Integrador Semana 1/Ejercicio Integrador Semana 1/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF88E0E3-364E-4AC2-81A4-9C35D64AAB5D}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F04DDCA6-44D9-4BC2-B262-FF8DE5745D34}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="3202" windowWidth="7695" windowHeight="4771" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
+    <workbookView xWindow="8587" yWindow="3540" windowWidth="7696" windowHeight="4770" activeTab="1" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Jurisdiccion</t>
   </si>
@@ -86,6 +86,24 @@
   </si>
   <si>
     <t>MINISTERIO DE JUSTICIA Y SEGURIDAD</t>
+  </si>
+  <si>
+    <t>RAUL JORGE LEON POGGI</t>
+  </si>
+  <si>
+    <t>20-08336759-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETILICO ALCOHOL    Modelo: Producto farmacéutico básico, según Farmacopea Nacional Argentina vigente, con protocolo de análisis </t>
+  </si>
+  <si>
+    <t>ZOOCIOS SRL</t>
+  </si>
+  <si>
+    <t>30-71142852-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUANTE PARA EXAMINACION    Modelo: Tamaño extra grande (XL). Elaborado en látex de primera calidad, descartable, atóxico y ambidiestro, no debe presentar asperezas al tacto y su largo permitirá cubrir con ajuste adecuado el puño del camisolín </t>
   </si>
 </sst>
 </file>
@@ -188,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -203,6 +221,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBAB0B3-976C-4A22-80DF-6963064C51BB}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -555,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>44744</v>
+        <v>44775</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -575,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -589,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>7111.9</v>
       </c>
     </row>
   </sheetData>
@@ -605,9 +624,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0DA34C-081E-49FC-BC42-435812368D1D}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
@@ -644,6 +663,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
+        <v>43970</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>1382.8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>43970</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1252.0999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>43970</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>4477</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
